--- a/eda_demo.xlsx
+++ b/eda_demo.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy\Desktop\113-2\stat2vis\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teddy\Desktop\stat2vis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CACA234-89C5-4DBC-8942-DE157BE59CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CF270-0CA5-42EE-9EA6-B8AA75F3F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1065" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="13">
-  <si>
-    <t>学年</t>
-  </si>
   <si>
     <t>性別</t>
   </si>
@@ -37,12 +34,6 @@
     <t>女性</t>
   </si>
   <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>あり</t>
-  </si>
-  <si>
     <t>1年</t>
   </si>
   <si>
@@ -52,25 +43,34 @@
     <t>3年</t>
   </si>
   <si>
-    <t>通学時間（分）</t>
-    <rPh sb="5" eb="6">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勉強時間（分）</t>
-    <rPh sb="5" eb="6">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>睡眠時間（分）</t>
     <rPh sb="5" eb="6">
       <t>フン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年級</t>
+  </si>
+  <si>
+    <t>通勤時間（分）</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>讀書時間（分）</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>無</t>
   </si>
 </sst>
 </file>
@@ -86,18 +86,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -117,30 +116,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,44 +459,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E0CD1B-F6E6-45AB-81B9-3021F7CF7EA0}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
+      <c r="F1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>49</v>
@@ -529,13 +510,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>52</v>
@@ -549,13 +530,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>69</v>
@@ -569,13 +550,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>72</v>
@@ -589,13 +570,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>72</v>
@@ -609,13 +590,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>108</v>
@@ -629,13 +610,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>14</v>
@@ -649,13 +630,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>88</v>
@@ -669,13 +650,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>26</v>
@@ -689,13 +670,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>119</v>
@@ -709,13 +690,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>41</v>
@@ -729,13 +710,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>92</v>
@@ -749,13 +730,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -769,13 +750,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>93</v>
@@ -789,13 +770,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>93</v>
@@ -809,13 +790,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -829,13 +810,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>63</v>
@@ -849,13 +830,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>70</v>
@@ -869,13 +850,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>107</v>
@@ -889,13 +870,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>44</v>
@@ -909,13 +890,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>92</v>
@@ -929,13 +910,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>51</v>
@@ -949,13 +930,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>93</v>
@@ -969,13 +950,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>86</v>
@@ -989,13 +970,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>42</v>
@@ -1009,13 +990,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>30</v>
@@ -1029,13 +1010,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>82</v>
@@ -1049,13 +1030,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>77</v>
@@ -1069,13 +1050,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>14</v>
@@ -1089,13 +1070,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>25</v>
@@ -1109,13 +1090,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>120</v>
@@ -1129,13 +1110,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>85</v>
@@ -1149,13 +1130,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>120</v>
@@ -1169,13 +1150,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>74</v>
@@ -1189,13 +1170,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>84</v>
@@ -1209,13 +1190,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>52</v>
@@ -1229,13 +1210,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>69</v>
@@ -1249,13 +1230,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>87</v>
@@ -1269,13 +1250,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>104</v>
@@ -1289,13 +1270,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>93</v>
@@ -1309,13 +1290,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>54</v>
@@ -1329,13 +1310,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>120</v>
@@ -1349,13 +1330,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>34</v>
@@ -1369,13 +1350,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>24</v>
@@ -1389,13 +1370,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -1409,13 +1390,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>19</v>
@@ -1429,13 +1410,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>44</v>
@@ -1449,13 +1430,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>37</v>
@@ -1469,13 +1450,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>70</v>
@@ -1489,13 +1470,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>14</v>
@@ -1509,13 +1490,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>62</v>
@@ -1529,13 +1510,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>37</v>
@@ -1549,13 +1530,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>36</v>
@@ -1569,13 +1550,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>79</v>
@@ -1589,13 +1570,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>28</v>
@@ -1609,13 +1590,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>40</v>
@@ -1629,13 +1610,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>80</v>
@@ -1649,13 +1630,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>119</v>
@@ -1669,13 +1650,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>60</v>
@@ -1689,13 +1670,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>33</v>
@@ -1709,13 +1690,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>39</v>
@@ -1729,13 +1710,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -1749,13 +1730,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -1769,13 +1750,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>41</v>
@@ -1789,13 +1770,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>58</v>
@@ -1809,13 +1790,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -1829,13 +1810,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>43</v>
@@ -1849,13 +1830,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>109</v>
@@ -1869,13 +1850,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>22</v>
@@ -1889,13 +1870,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>84</v>
@@ -1909,13 +1890,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>9</v>
@@ -1929,13 +1910,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>110</v>
@@ -1949,13 +1930,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>47</v>
@@ -1969,13 +1950,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>63</v>
@@ -1989,13 +1970,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>36</v>
@@ -2009,13 +1990,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -2029,13 +2010,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>70</v>
@@ -2049,13 +2030,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>108</v>
@@ -2069,13 +2050,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>46</v>
@@ -2089,13 +2070,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>62</v>
@@ -2109,13 +2090,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>40</v>
@@ -2129,13 +2110,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>107</v>
@@ -2149,13 +2130,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>16</v>
@@ -2169,13 +2150,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>51</v>
@@ -2189,13 +2170,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>87</v>
@@ -2209,13 +2190,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>96</v>
@@ -2229,13 +2210,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2249,13 +2230,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>19</v>
@@ -2269,13 +2250,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>104</v>
@@ -2289,13 +2270,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>58</v>
@@ -2309,13 +2290,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>17</v>
@@ -2329,13 +2310,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>47</v>
@@ -2349,13 +2330,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>89</v>
@@ -2369,13 +2350,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>80</v>
@@ -2389,13 +2370,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>73</v>
@@ -2409,13 +2390,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>11</v>
@@ -2429,13 +2410,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>73</v>
@@ -2449,13 +2430,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>52</v>
@@ -2469,13 +2450,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -2489,13 +2470,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>81</v>
@@ -2508,8 +2489,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>